--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
@@ -546,10 +546,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N2">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O2">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P2">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q2">
-        <v>0.04639717536888888</v>
+        <v>0.04788189246677777</v>
       </c>
       <c r="R2">
-        <v>0.4175745783199999</v>
+        <v>0.4309370322009999</v>
       </c>
       <c r="S2">
-        <v>0.01502944543568301</v>
+        <v>0.04433606405110049</v>
       </c>
       <c r="T2">
-        <v>0.01502944543568301</v>
+        <v>0.04433606405110049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q3">
         <v>0.06414920321511111</v>
@@ -638,10 +638,10 @@
         <v>0.577342828936</v>
       </c>
       <c r="S3">
-        <v>0.02077986303688948</v>
+        <v>0.05939872122944149</v>
       </c>
       <c r="T3">
-        <v>0.02077986303688948</v>
+        <v>0.05939872122944149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N4">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q4">
-        <v>0.3552518221075556</v>
+        <v>0.4033934127537777</v>
       </c>
       <c r="R4">
-        <v>3.197266398968</v>
+        <v>3.630540714784</v>
       </c>
       <c r="S4">
-        <v>0.1150767871932273</v>
+        <v>0.3735206622848647</v>
       </c>
       <c r="T4">
-        <v>0.1150767871932273</v>
+        <v>0.3735206622848647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N5">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q5">
-        <v>0.01314728805388889</v>
+        <v>0.01930669058311111</v>
       </c>
       <c r="R5">
-        <v>0.118325592485</v>
+        <v>0.173760215248</v>
       </c>
       <c r="S5">
-        <v>0.004258803404778521</v>
+        <v>0.0178769598737457</v>
       </c>
       <c r="T5">
-        <v>0.004258803404778521</v>
+        <v>0.0178769598737457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N6">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q6">
-        <v>0.4687452061843333</v>
+        <v>0.1255285650358889</v>
       </c>
       <c r="R6">
-        <v>4.218706855659</v>
+        <v>1.129757085323</v>
       </c>
       <c r="S6">
-        <v>0.1518407196897885</v>
+        <v>0.1162327179013531</v>
       </c>
       <c r="T6">
-        <v>0.1518407196897885</v>
+        <v>0.1162327179013531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H7">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N7">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O7">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P7">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q7">
-        <v>0.1047407689955555</v>
+        <v>0.03043774089488889</v>
       </c>
       <c r="R7">
-        <v>0.9426669209599999</v>
+        <v>0.273939668054</v>
       </c>
       <c r="S7">
-        <v>0.03392869630520095</v>
+        <v>0.02818371539560431</v>
       </c>
       <c r="T7">
-        <v>0.03392869630520095</v>
+        <v>0.0281837153956043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H8">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q8">
-        <v>0.1448156449564444</v>
+        <v>0.04077860597155556</v>
       </c>
       <c r="R8">
-        <v>1.303340804608</v>
+        <v>0.367007453744</v>
       </c>
       <c r="S8">
-        <v>0.04691015814651407</v>
+        <v>0.03775880177509499</v>
       </c>
       <c r="T8">
-        <v>0.04691015814651407</v>
+        <v>0.03775880177509499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H9">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N9">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q9">
-        <v>0.8019744464782222</v>
+        <v>0.2564306367928889</v>
       </c>
       <c r="R9">
-        <v>7.217770018304001</v>
+        <v>2.307875731136</v>
       </c>
       <c r="S9">
-        <v>0.2597837279602734</v>
+        <v>0.2374410147928536</v>
       </c>
       <c r="T9">
-        <v>0.2597837279602734</v>
+        <v>0.2374410147928536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H10">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N10">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q10">
-        <v>0.02967976067555555</v>
+        <v>0.01227294944355556</v>
       </c>
       <c r="R10">
-        <v>0.26711784608</v>
+        <v>0.110456544992</v>
       </c>
       <c r="S10">
-        <v>0.009614170260815061</v>
+        <v>0.01136409286669147</v>
       </c>
       <c r="T10">
-        <v>0.009614170260815061</v>
+        <v>0.01136409286669147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H11">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N11">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q11">
-        <v>1.058183671061333</v>
+        <v>0.07979646878244447</v>
       </c>
       <c r="R11">
-        <v>9.523653039552</v>
+        <v>0.718168219042</v>
       </c>
       <c r="S11">
-        <v>0.3427776285668295</v>
+        <v>0.07388724982925012</v>
       </c>
       <c r="T11">
-        <v>0.3427776285668295</v>
+        <v>0.0738872498292501</v>
       </c>
     </row>
   </sheetData>
